--- a/biology/Botanique/Gymnema/Gymnema.xlsx
+++ b/biology/Botanique/Gymnema/Gymnema.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Gymnema, néolatin qui vient du grec "gymnos" : "nu" et de "νῆμα" : nēma : "fil"), est un genre de plante à fleurs de la famille des Apocynaceae décrit pour la première fois en tant que genre en 1810.
-L'espèce, Gymnema sylvestre, est couramment utilisée comme complément alimentaire et a la capacité de supprimer le goût sucré. C'est un "fruit miracle"[4].
-Liste des espèces[5]
+L'espèce, Gymnema sylvestre, est couramment utilisée comme complément alimentaire et a la capacité de supprimer le goût sucré. C'est un "fruit miracle".
+Liste des espèces
 Gymnema acuminatum  Népal, nord de l'Inde, ouest de la Malaisie
 Gymnema albidum – Timor
 Gymnema albiflorum  – nord du Vietnam
@@ -535,7 +547,7 @@
 Gymnema trinerve  – Australie
 Gymnema uncarioides  – Luçon
 Gymnema yunnanense – Guangxi, Yunnan
-et anciennement inclus[5]
+et anciennement inclus
 Gymnema columnare, syn. de Gongronema nepalense
 Gymnema crenatum, syn. de Loeseneriella crenata
 Gymnema finlaysonii, syn. de Gongronema finlaysonii
